--- a/doc/Melissa/Сценарии/Порядок реализаций.xlsx
+++ b/doc/Melissa/Сценарии/Порядок реализаций.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Сценарий</t>
   </si>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,6 +439,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -497,6 +500,9 @@
       </c>
       <c r="C10">
         <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
